--- a/Assignment_Testcase/Assignment4-Testcase-30_10_Tien Anh.xlsx
+++ b/Assignment_Testcase/Assignment4-Testcase-30_10_Tien Anh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitRookies\Assignment_Testcase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0CFE834-174D-4E67-B8F0-7731FEAD5771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E62C9A4-3485-4D18-B8DD-51BD62412067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
     <definedName name="Result_CS_IT_1.1_004">#REF!</definedName>
     <definedName name="safa">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1406,7 +1406,7 @@
     <xf numFmtId="165" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1541,12 +1541,6 @@
     <xf numFmtId="0" fontId="26" fillId="21" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="4" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="1" xfId="4" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1556,6 +1550,30 @@
     <xf numFmtId="0" fontId="10" fillId="22" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="20" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1583,29 +1601,8 @@
     <xf numFmtId="0" fontId="13" fillId="11" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="28">
@@ -2113,8 +2110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91D34C5A-4B36-4701-BA45-B0514453A9B8}">
   <dimension ref="A1:X97"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B96" sqref="B96"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.19921875" defaultRowHeight="13.2"/>
@@ -2130,10 +2127,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="3" customFormat="1" ht="13.8">
-      <c r="A1" s="70"/>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
+      <c r="A1" s="57"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
@@ -2142,13 +2139,13 @@
       <c r="J1" s="5"/>
     </row>
     <row r="2" spans="1:24" s="3" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="59"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
@@ -2157,9 +2154,9 @@
     </row>
     <row r="3" spans="1:24" s="3" customFormat="1" ht="22.8">
       <c r="A3" s="15"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="72"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="59"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -2170,11 +2167,11 @@
       <c r="A4" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="67" t="s">
+      <c r="B4" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -2188,11 +2185,11 @@
       <c r="A5" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="66" t="s">
+      <c r="B5" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -2206,11 +2203,11 @@
       <c r="A6" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -2221,11 +2218,11 @@
       <c r="A7" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="67" t="s">
+      <c r="B7" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -2237,9 +2234,9 @@
       <c r="A8" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
       <c r="E8" s="7"/>
     </row>
     <row r="9" spans="1:24" s="11" customFormat="1" ht="26.4">
@@ -2382,11 +2379,11 @@
       <c r="C16" s="17"/>
       <c r="D16" s="18"/>
       <c r="E16" s="23"/>
-      <c r="F16" s="69" t="s">
+      <c r="F16" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="G16" s="69"/>
-      <c r="H16" s="69"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
       <c r="I16" s="24"/>
     </row>
     <row r="17" spans="1:9" s="12" customFormat="1" ht="39.6">
@@ -2420,11 +2417,11 @@
     </row>
     <row r="18" spans="1:9" s="36" customFormat="1" ht="21.75" customHeight="1">
       <c r="A18" s="37"/>
-      <c r="B18" s="57" t="s">
+      <c r="B18" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="58"/>
-      <c r="D18" s="59"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="65"/>
       <c r="E18" s="37"/>
       <c r="F18" s="38"/>
       <c r="G18" s="38"/>
@@ -2433,11 +2430,11 @@
     </row>
     <row r="19" spans="1:9" s="36" customFormat="1" ht="13.8" thickBot="1">
       <c r="A19" s="1"/>
-      <c r="B19" s="60" t="s">
+      <c r="B19" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="61"/>
-      <c r="D19" s="62"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="68"/>
       <c r="E19" s="1"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -2689,11 +2686,11 @@
     </row>
     <row r="33" spans="1:10" s="13" customFormat="1" ht="13.8" thickBot="1">
       <c r="A33" s="46"/>
-      <c r="B33" s="63" t="s">
+      <c r="B33" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="C33" s="64"/>
-      <c r="D33" s="65"/>
+      <c r="C33" s="70"/>
+      <c r="D33" s="71"/>
       <c r="E33" s="46"/>
       <c r="F33" s="47"/>
       <c r="G33" s="47"/>
@@ -2922,11 +2919,11 @@
     </row>
     <row r="45" spans="1:10" s="13" customFormat="1" ht="13.8" thickBot="1">
       <c r="A45" s="46"/>
-      <c r="B45" s="63" t="s">
+      <c r="B45" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="C45" s="64"/>
-      <c r="D45" s="65"/>
+      <c r="C45" s="70"/>
+      <c r="D45" s="71"/>
       <c r="E45" s="46"/>
       <c r="F45" s="47"/>
       <c r="G45" s="47"/>
@@ -3153,11 +3150,11 @@
     </row>
     <row r="57" spans="1:9" s="13" customFormat="1" ht="13.8" thickBot="1">
       <c r="A57" s="46"/>
-      <c r="B57" s="63" t="s">
+      <c r="B57" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="C57" s="64"/>
-      <c r="D57" s="65"/>
+      <c r="C57" s="70"/>
+      <c r="D57" s="71"/>
       <c r="E57" s="46"/>
       <c r="F57" s="47"/>
       <c r="G57" s="47"/>
@@ -3206,7 +3203,7 @@
       <c r="A60" s="19">
         <v>36</v>
       </c>
-      <c r="B60" s="42" t="s">
+      <c r="B60" s="72" t="s">
         <v>53</v>
       </c>
       <c r="C60" s="48" t="s">
@@ -3225,7 +3222,7 @@
       <c r="A61" s="19">
         <v>37</v>
       </c>
-      <c r="B61" s="42" t="s">
+      <c r="B61" s="72" t="s">
         <v>54</v>
       </c>
       <c r="C61" s="48" t="s">
@@ -3318,11 +3315,11 @@
     </row>
     <row r="66" spans="1:9" s="13" customFormat="1" ht="13.8" thickBot="1">
       <c r="A66" s="46"/>
-      <c r="B66" s="63" t="s">
+      <c r="B66" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="C66" s="64"/>
-      <c r="D66" s="65"/>
+      <c r="C66" s="70"/>
+      <c r="D66" s="71"/>
       <c r="E66" s="46"/>
       <c r="F66" s="47"/>
       <c r="G66" s="47"/>
@@ -3490,29 +3487,29 @@
     </row>
     <row r="75" spans="1:9" s="39" customFormat="1" ht="13.8" thickBot="1">
       <c r="A75" s="46"/>
-      <c r="B75" s="63" t="s">
+      <c r="B75" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="C75" s="64"/>
-      <c r="D75" s="65"/>
+      <c r="C75" s="70"/>
+      <c r="D75" s="71"/>
       <c r="E75" s="46"/>
       <c r="F75" s="47"/>
       <c r="G75" s="47"/>
       <c r="H75" s="47"/>
       <c r="I75" s="46"/>
     </row>
-    <row r="76" spans="1:9" s="13" customFormat="1" ht="27" thickBot="1">
+    <row r="76" spans="1:9" s="13" customFormat="1" ht="40.200000000000003" thickBot="1">
       <c r="A76" s="19">
         <v>50</v>
       </c>
       <c r="B76" s="19" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C76" s="48" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D76" s="49" t="s">
-        <v>93</v>
+        <v>194</v>
       </c>
       <c r="E76" s="21"/>
       <c r="F76" s="19"/>
@@ -3522,17 +3519,16 @@
     </row>
     <row r="77" spans="1:9" s="13" customFormat="1" ht="27" thickBot="1">
       <c r="A77" s="19">
-        <f>A76+1</f>
         <v>51</v>
       </c>
       <c r="B77" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C77" s="48" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D77" s="49" t="s">
-        <v>196</v>
+        <v>93</v>
       </c>
       <c r="E77" s="21"/>
       <c r="F77" s="19"/>
@@ -3542,17 +3538,16 @@
     </row>
     <row r="78" spans="1:9" s="13" customFormat="1" ht="27" thickBot="1">
       <c r="A78" s="19">
-        <f t="shared" ref="A78:A81" si="3">A77+1</f>
         <v>52</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C78" s="48" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D78" s="49" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="E78" s="21"/>
       <c r="F78" s="19"/>
@@ -3560,19 +3555,18 @@
       <c r="H78" s="19"/>
       <c r="I78" s="22"/>
     </row>
-    <row r="79" spans="1:9" s="13" customFormat="1" ht="119.4" thickBot="1">
+    <row r="79" spans="1:9" s="13" customFormat="1" ht="27" thickBot="1">
       <c r="A79" s="19">
-        <f t="shared" si="3"/>
         <v>53</v>
       </c>
       <c r="B79" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C79" s="48" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D79" s="49" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="E79" s="21"/>
       <c r="F79" s="19"/>
@@ -3580,19 +3574,18 @@
       <c r="H79" s="19"/>
       <c r="I79" s="22"/>
     </row>
-    <row r="80" spans="1:9" s="13" customFormat="1" ht="53.4" thickBot="1">
+    <row r="80" spans="1:9" s="13" customFormat="1" ht="119.4" thickBot="1">
       <c r="A80" s="19">
-        <f t="shared" si="3"/>
         <v>54</v>
       </c>
       <c r="B80" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C80" s="48" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="D80" s="49" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="E80" s="21"/>
       <c r="F80" s="19"/>
@@ -3600,19 +3593,18 @@
       <c r="H80" s="19"/>
       <c r="I80" s="22"/>
     </row>
-    <row r="81" spans="1:10" s="13" customFormat="1" ht="40.200000000000003" thickBot="1">
+    <row r="81" spans="1:10" s="13" customFormat="1" ht="53.4" thickBot="1">
       <c r="A81" s="19">
-        <f t="shared" si="3"/>
         <v>55</v>
       </c>
       <c r="B81" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C81" s="48" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D81" s="49" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E81" s="21"/>
       <c r="F81" s="19"/>
@@ -3622,16 +3614,16 @@
     </row>
     <row r="82" spans="1:10" s="13" customFormat="1">
       <c r="A82" s="46"/>
-      <c r="B82" s="63" t="s">
+      <c r="B82" s="69" t="s">
         <v>107</v>
       </c>
-      <c r="C82" s="64"/>
-      <c r="D82" s="65"/>
-      <c r="E82" s="54"/>
-      <c r="F82" s="55"/>
-      <c r="G82" s="55"/>
-      <c r="H82" s="55"/>
-      <c r="I82" s="56"/>
+      <c r="C82" s="70"/>
+      <c r="D82" s="71"/>
+      <c r="E82" s="52"/>
+      <c r="F82" s="53"/>
+      <c r="G82" s="53"/>
+      <c r="H82" s="53"/>
+      <c r="I82" s="54"/>
     </row>
     <row r="83" spans="1:10" s="13" customFormat="1">
       <c r="A83" s="19">
@@ -3655,8 +3647,8 @@
       <c r="B84" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="C84" s="52"/>
-      <c r="D84" s="53"/>
+      <c r="C84" s="19"/>
+      <c r="D84" s="20"/>
       <c r="E84" s="21"/>
       <c r="F84" s="19"/>
       <c r="G84" s="19"/>
@@ -3665,11 +3657,11 @@
     </row>
     <row r="85" spans="1:10" s="13" customFormat="1" ht="13.8" thickBot="1">
       <c r="A85" s="40"/>
-      <c r="B85" s="57" t="s">
+      <c r="B85" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="C85" s="58"/>
-      <c r="D85" s="59"/>
+      <c r="C85" s="64"/>
+      <c r="D85" s="65"/>
       <c r="E85" s="40"/>
       <c r="F85" s="41"/>
       <c r="G85" s="41"/>
@@ -3717,7 +3709,7 @@
     </row>
     <row r="88" spans="1:10" s="13" customFormat="1" ht="27" thickBot="1">
       <c r="A88" s="19">
-        <f t="shared" ref="A88:A92" si="4">A87+1</f>
+        <f t="shared" ref="A88:A92" si="3">A87+1</f>
         <v>60</v>
       </c>
       <c r="B88" s="43" t="s">
@@ -3737,7 +3729,7 @@
     </row>
     <row r="89" spans="1:10" s="36" customFormat="1" ht="40.200000000000003" thickBot="1">
       <c r="A89" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>61</v>
       </c>
       <c r="B89" s="43" t="s">
@@ -3758,7 +3750,7 @@
     </row>
     <row r="90" spans="1:10" s="13" customFormat="1" ht="40.200000000000003" thickBot="1">
       <c r="A90" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>62</v>
       </c>
       <c r="B90" s="43" t="s">
@@ -3778,7 +3770,7 @@
     </row>
     <row r="91" spans="1:10" s="13" customFormat="1" ht="79.8" thickBot="1">
       <c r="A91" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>63</v>
       </c>
       <c r="B91" s="44" t="s">
@@ -3798,7 +3790,7 @@
     </row>
     <row r="92" spans="1:10" s="13" customFormat="1" ht="79.8" thickBot="1">
       <c r="A92" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>64</v>
       </c>
       <c r="B92" s="44" t="s">
@@ -3823,17 +3815,6 @@
     <row r="97" s="16" customFormat="1" ht="13.8"/>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="B18:D18"/>
     <mergeCell ref="B85:D85"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B33:D33"/>
@@ -3842,6 +3823,17 @@
     <mergeCell ref="B66:D66"/>
     <mergeCell ref="B75:D75"/>
     <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B4:D4"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F98:H155" xr:uid="{8256C5A9-B64E-49E7-8A07-569145E1CAD7}">
